--- a/biology/Botanique/Maurice_Hollande/Maurice_Hollande.xlsx
+++ b/biology/Botanique/Maurice_Hollande/Maurice_Hollande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Maurice Hollande , né à Valenciennes le 15 juin 1885 et mort à Reims le 22 novembre 1968, est un avocat.
 Il fut également très investi, dans la vie sociale et littéraire de la ville de Reims.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Maurice Hollande est né le 15 juin 1885, à Valenciennes.
 Il est le fils d’Henri Joseph Maurice Hollande (18516-1928) industriel et d’Alice Renard (1854-1938).
@@ -548,14 +562,16 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Secrétaire de la Chambre de commerce de Reims et d’Épernay,
 Secrétaire du Syndicat patronal de l’industrie textile (1912-1941),
 Secrétaire de l’Union des négociants en laine de Reims et de la région (1925-1936),
 Directeur des cours d’enseignement technique de la Société Industrielle de Reims (1912-1950),
-Professeur de droit civil et commercial à l’École supérieure de commerce[1].
-Vice-président de la Société des amis du vieux Reims[2].</t>
+Professeur de droit civil et commercial à l’École supérieure de commerce.
+Vice-président de la Société des amis du vieux Reims.</t>
         </is>
       </c>
     </row>
@@ -583,9 +599,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Depuis 1971, une rue de Reims, porte en hommage à Maurice Hollande, le nom de « rue Maurice Hollande »[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Depuis 1971, une rue de Reims, porte en hommage à Maurice Hollande, le nom de « rue Maurice Hollande ».
 Chevalier de la Légion d’honneur.</t>
         </is>
       </c>
